--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Wnt11-Fzd7.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.358337</v>
+        <v>0.47481</v>
       </c>
       <c r="H2">
-        <v>0.716674</v>
+        <v>0.9496199999999999</v>
       </c>
       <c r="I2">
-        <v>0.04630995300557136</v>
+        <v>0.05262398989392409</v>
       </c>
       <c r="J2">
-        <v>0.03219283665205891</v>
+        <v>0.03691703529794483</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N2">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O2">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P2">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q2">
-        <v>0.2471247828595</v>
+        <v>0.9045643294799999</v>
       </c>
       <c r="R2">
-        <v>0.9884991314380002</v>
+        <v>3.618257317919999</v>
       </c>
       <c r="S2">
-        <v>0.001478427400942139</v>
+        <v>0.003989154277737563</v>
       </c>
       <c r="T2">
-        <v>0.0007654292674644282</v>
+        <v>0.002110003938163312</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.358337</v>
+        <v>0.47481</v>
       </c>
       <c r="H3">
-        <v>0.716674</v>
+        <v>0.9496199999999999</v>
       </c>
       <c r="I3">
-        <v>0.04630995300557136</v>
+        <v>0.05262398989392409</v>
       </c>
       <c r="J3">
-        <v>0.03219283665205891</v>
+        <v>0.03691703529794483</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>9.20485</v>
       </c>
       <c r="O3">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P3">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q3">
-        <v>1.099479444816667</v>
+        <v>1.4568516095</v>
       </c>
       <c r="R3">
-        <v>6.5968766689</v>
+        <v>8.741109656999999</v>
       </c>
       <c r="S3">
-        <v>0.006577650849829053</v>
+        <v>0.006424756803539503</v>
       </c>
       <c r="T3">
-        <v>0.005108191110784008</v>
+        <v>0.005097419608285347</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.358337</v>
+        <v>0.47481</v>
       </c>
       <c r="H4">
-        <v>0.716674</v>
+        <v>0.9496199999999999</v>
       </c>
       <c r="I4">
-        <v>0.04630995300557136</v>
+        <v>0.05262398989392409</v>
       </c>
       <c r="J4">
-        <v>0.03219283665205891</v>
+        <v>0.03691703529794483</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N4">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O4">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P4">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q4">
-        <v>1.900666987375333</v>
+        <v>1.76912021874</v>
       </c>
       <c r="R4">
-        <v>11.404001924252</v>
+        <v>10.61472131244</v>
       </c>
       <c r="S4">
-        <v>0.01137076630553655</v>
+        <v>0.007801870202504731</v>
       </c>
       <c r="T4">
-        <v>0.008830515436412023</v>
+        <v>0.006190025142996101</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.358337</v>
+        <v>0.47481</v>
       </c>
       <c r="H5">
-        <v>0.716674</v>
+        <v>0.9496199999999999</v>
       </c>
       <c r="I5">
-        <v>0.04630995300557136</v>
+        <v>0.05262398989392409</v>
       </c>
       <c r="J5">
-        <v>0.03219283665205891</v>
+        <v>0.03691703529794483</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N5">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O5">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P5">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q5">
-        <v>2.18811680647</v>
+        <v>3.24097519116</v>
       </c>
       <c r="R5">
-        <v>8.75246722588</v>
+        <v>12.96390076464</v>
       </c>
       <c r="S5">
-        <v>0.01309043878851463</v>
+        <v>0.0142927922608771</v>
       </c>
       <c r="T5">
-        <v>0.00677733987228287</v>
+        <v>0.007559960296873934</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.358337</v>
+        <v>0.47481</v>
       </c>
       <c r="H6">
-        <v>0.716674</v>
+        <v>0.9496199999999999</v>
       </c>
       <c r="I6">
-        <v>0.04630995300557136</v>
+        <v>0.05262398989392409</v>
       </c>
       <c r="J6">
-        <v>0.03219283665205891</v>
+        <v>0.03691703529794483</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N6">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O6">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P6">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q6">
-        <v>0.3378703433536667</v>
+        <v>2.016815617599999</v>
       </c>
       <c r="R6">
-        <v>2.027222060122</v>
+        <v>12.1008937056</v>
       </c>
       <c r="S6">
-        <v>0.00202131396050142</v>
+        <v>0.008894213917303101</v>
       </c>
       <c r="T6">
-        <v>0.001569748568427787</v>
+        <v>0.007056693631946982</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.358337</v>
+        <v>0.47481</v>
       </c>
       <c r="H7">
-        <v>0.716674</v>
+        <v>0.9496199999999999</v>
       </c>
       <c r="I7">
-        <v>0.04630995300557136</v>
+        <v>0.05262398989392409</v>
       </c>
       <c r="J7">
-        <v>0.03219283665205891</v>
+        <v>0.03691703529794483</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.490996</v>
+        <v>5.358931000000001</v>
       </c>
       <c r="N7">
-        <v>16.472988</v>
+        <v>16.076793</v>
       </c>
       <c r="O7">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="P7">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
       <c r="Q7">
-        <v>1.967627033652</v>
+        <v>2.54447402811</v>
       </c>
       <c r="R7">
-        <v>11.805762201912</v>
+        <v>15.26684416866</v>
       </c>
       <c r="S7">
-        <v>0.01177135570024756</v>
+        <v>0.01122120243196209</v>
       </c>
       <c r="T7">
-        <v>0.009141612396687792</v>
+        <v>0.008902932679679149</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>14.429385</v>
       </c>
       <c r="I8">
-        <v>0.6215974917924526</v>
+        <v>0.5330776594255526</v>
       </c>
       <c r="J8">
-        <v>0.6481647643066011</v>
+        <v>0.560950817561378</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N8">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O8">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P8">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q8">
-        <v>3.317043858082501</v>
+        <v>9.163178932860001</v>
       </c>
       <c r="R8">
-        <v>19.902263148495</v>
+        <v>54.97907359716</v>
       </c>
       <c r="S8">
-        <v>0.01984426034965548</v>
+        <v>0.04040987826560254</v>
       </c>
       <c r="T8">
-        <v>0.015411014757773</v>
+        <v>0.03206130786554056</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>14.429385</v>
       </c>
       <c r="I9">
-        <v>0.6215974917924526</v>
+        <v>0.5330776594255526</v>
       </c>
       <c r="J9">
-        <v>0.6481647643066011</v>
+        <v>0.560950817561378</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>9.20485</v>
       </c>
       <c r="O9">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P9">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q9">
         <v>14.75781383525</v>
@@ -1013,10 +1013,10 @@
         <v>132.82032451725</v>
       </c>
       <c r="S9">
-        <v>0.08828882356344316</v>
+        <v>0.06508237642400178</v>
       </c>
       <c r="T9">
-        <v>0.1028473981072009</v>
+        <v>0.07745480301014983</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>14.429385</v>
       </c>
       <c r="I10">
-        <v>0.6215974917924526</v>
+        <v>0.5330776594255526</v>
       </c>
       <c r="J10">
-        <v>0.6481647643066011</v>
+        <v>0.560950817561378</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N10">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O10">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P10">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q10">
-        <v>25.51179077947</v>
+        <v>17.92107491943</v>
       </c>
       <c r="R10">
-        <v>229.60611701523</v>
+        <v>161.28967427487</v>
       </c>
       <c r="S10">
-        <v>0.1526246380433452</v>
+        <v>0.07903244727502842</v>
       </c>
       <c r="T10">
-        <v>0.1777920044266041</v>
+        <v>0.09405683952314696</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>14.429385</v>
       </c>
       <c r="I11">
-        <v>0.6215974917924526</v>
+        <v>0.5330776594255526</v>
       </c>
       <c r="J11">
-        <v>0.6481647643066011</v>
+        <v>0.560950817561378</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N11">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O11">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P11">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q11">
-        <v>29.37009930645</v>
+        <v>32.83087186362</v>
       </c>
       <c r="R11">
-        <v>176.2205958387</v>
+        <v>196.98523118172</v>
       </c>
       <c r="S11">
-        <v>0.175707021694114</v>
+        <v>0.1447850735081515</v>
       </c>
       <c r="T11">
-        <v>0.1364537380915456</v>
+        <v>0.1148728730527035</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>14.429385</v>
       </c>
       <c r="I12">
-        <v>0.6215974917924526</v>
+        <v>0.5330776594255526</v>
       </c>
       <c r="J12">
-        <v>0.6481647643066011</v>
+        <v>0.560950817561378</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N12">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O12">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P12">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q12">
-        <v>4.535080352045</v>
+        <v>20.4302135032</v>
       </c>
       <c r="R12">
-        <v>40.815723168405</v>
+        <v>183.8719215288</v>
       </c>
       <c r="S12">
-        <v>0.02713118037113089</v>
+        <v>0.0900978193980221</v>
       </c>
       <c r="T12">
-        <v>0.03160503443273145</v>
+        <v>0.1072257842530816</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>14.429385</v>
       </c>
       <c r="I13">
-        <v>0.6215974917924526</v>
+        <v>0.5330776594255526</v>
       </c>
       <c r="J13">
-        <v>0.6481647643066011</v>
+        <v>0.560950817561378</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.490996</v>
+        <v>5.358931000000001</v>
       </c>
       <c r="N13">
-        <v>16.472988</v>
+        <v>16.076793</v>
       </c>
       <c r="O13">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="P13">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
       <c r="Q13">
-        <v>26.41056510582</v>
+        <v>25.77535952914501</v>
       </c>
       <c r="R13">
-        <v>237.69508595238</v>
+        <v>231.978235762305</v>
       </c>
       <c r="S13">
-        <v>0.1580015677707639</v>
+        <v>0.1136700645547464</v>
       </c>
       <c r="T13">
-        <v>0.184055574490746</v>
+        <v>0.1352792098567555</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.796018</v>
+        <v>1.060907666666667</v>
       </c>
       <c r="H14">
-        <v>2.388054</v>
+        <v>3.182723</v>
       </c>
       <c r="I14">
-        <v>0.1028739878147914</v>
+        <v>0.1175821788274326</v>
       </c>
       <c r="J14">
-        <v>0.1072708544446929</v>
+        <v>0.1237302261268517</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N14">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O14">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P14">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q14">
-        <v>0.548968639583</v>
+        <v>2.021143683028</v>
       </c>
       <c r="R14">
-        <v>3.293811837498</v>
+        <v>12.126862098168</v>
       </c>
       <c r="S14">
-        <v>0.003284212411342283</v>
+        <v>0.008913300808255746</v>
       </c>
       <c r="T14">
-        <v>0.002550513097845739</v>
+        <v>0.007071837223397728</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.796018</v>
+        <v>1.060907666666667</v>
       </c>
       <c r="H15">
-        <v>2.388054</v>
+        <v>3.182723</v>
       </c>
       <c r="I15">
-        <v>0.1028739878147914</v>
+        <v>0.1175821788274326</v>
       </c>
       <c r="J15">
-        <v>0.1072708544446929</v>
+        <v>0.1237302261268517</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>9.20485</v>
       </c>
       <c r="O15">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P15">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q15">
-        <v>2.442408762433333</v>
+        <v>3.255165311838889</v>
       </c>
       <c r="R15">
-        <v>21.9816788619</v>
+        <v>29.29648780655</v>
       </c>
       <c r="S15">
-        <v>0.01461174390079513</v>
+        <v>0.0143553710944249</v>
       </c>
       <c r="T15">
-        <v>0.01702117868776067</v>
+        <v>0.01708438599433539</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.796018</v>
+        <v>1.060907666666667</v>
       </c>
       <c r="H16">
-        <v>2.388054</v>
+        <v>3.182723</v>
       </c>
       <c r="I16">
-        <v>0.1028739878147914</v>
+        <v>0.1175821788274326</v>
       </c>
       <c r="J16">
-        <v>0.1072708544446929</v>
+        <v>0.1237302261268517</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N16">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O16">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P16">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q16">
-        <v>4.222185077054667</v>
+        <v>3.952893164247334</v>
       </c>
       <c r="R16">
-        <v>37.999665693492</v>
+        <v>35.576038478226</v>
       </c>
       <c r="S16">
-        <v>0.0252592800994611</v>
+        <v>0.01743237065810638</v>
       </c>
       <c r="T16">
-        <v>0.02942446315896136</v>
+        <v>0.02074633579030769</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.796018</v>
+        <v>1.060907666666667</v>
       </c>
       <c r="H17">
-        <v>2.388054</v>
+        <v>3.182723</v>
       </c>
       <c r="I17">
-        <v>0.1028739878147914</v>
+        <v>0.1175821788274326</v>
       </c>
       <c r="J17">
-        <v>0.1072708544446929</v>
+        <v>0.1237302261268517</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N17">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O17">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P17">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q17">
-        <v>4.860732673579999</v>
+        <v>7.241581743809334</v>
       </c>
       <c r="R17">
-        <v>29.16439604148</v>
+        <v>43.449490462856</v>
       </c>
       <c r="S17">
-        <v>0.0290793998486225</v>
+        <v>0.03193558031136354</v>
       </c>
       <c r="T17">
-        <v>0.0225830064874191</v>
+        <v>0.02533777670641678</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.796018</v>
+        <v>1.060907666666667</v>
       </c>
       <c r="H18">
-        <v>2.388054</v>
+        <v>3.182723</v>
       </c>
       <c r="I18">
-        <v>0.1028739878147914</v>
+        <v>0.1175821788274326</v>
       </c>
       <c r="J18">
-        <v>0.1072708544446929</v>
+        <v>0.1237302261268517</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N18">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O18">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P18">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q18">
-        <v>0.7505529012513333</v>
+        <v>4.506339695804445</v>
       </c>
       <c r="R18">
-        <v>6.754976111262</v>
+        <v>40.55705726224</v>
       </c>
       <c r="S18">
-        <v>0.004490193020007478</v>
+        <v>0.01987308551597529</v>
       </c>
       <c r="T18">
-        <v>0.005230613009301648</v>
+        <v>0.02365104054922095</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.796018</v>
+        <v>1.060907666666667</v>
       </c>
       <c r="H19">
-        <v>2.388054</v>
+        <v>3.182723</v>
       </c>
       <c r="I19">
-        <v>0.1028739878147914</v>
+        <v>0.1175821788274326</v>
       </c>
       <c r="J19">
-        <v>0.1072708544446929</v>
+        <v>0.1237302261268517</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.490996</v>
+        <v>5.358931000000001</v>
       </c>
       <c r="N19">
-        <v>16.472988</v>
+        <v>16.076793</v>
       </c>
       <c r="O19">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="P19">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
       <c r="Q19">
-        <v>4.370931653928</v>
+        <v>5.685330983037669</v>
       </c>
       <c r="R19">
-        <v>39.338384885352</v>
+        <v>51.16797884733901</v>
       </c>
       <c r="S19">
-        <v>0.0261491585345629</v>
+        <v>0.02507247043930674</v>
       </c>
       <c r="T19">
-        <v>0.03046108000340443</v>
+        <v>0.02983884986317313</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.593144</v>
+        <v>0.870179</v>
       </c>
       <c r="H20">
-        <v>1.186288</v>
+        <v>1.740358</v>
       </c>
       <c r="I20">
-        <v>0.07665541310424717</v>
+        <v>0.0964434003115035</v>
       </c>
       <c r="J20">
-        <v>0.05328779306392817</v>
+        <v>0.06765743952008244</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N20">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O20">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P20">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q20">
-        <v>0.4090579041640001</v>
+        <v>1.657784974332</v>
       </c>
       <c r="R20">
-        <v>1.636231616656</v>
+        <v>6.631139897328</v>
       </c>
       <c r="S20">
-        <v>0.00244719451885913</v>
+        <v>0.007310878625655305</v>
       </c>
       <c r="T20">
-        <v>0.001266991065452132</v>
+        <v>0.003866980722619601</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.593144</v>
+        <v>0.870179</v>
       </c>
       <c r="H21">
-        <v>1.186288</v>
+        <v>1.740358</v>
       </c>
       <c r="I21">
-        <v>0.07665541310424717</v>
+        <v>0.0964434003115035</v>
       </c>
       <c r="J21">
-        <v>0.05328779306392817</v>
+        <v>0.06765743952008244</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>9.20485</v>
       </c>
       <c r="O21">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P21">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q21">
-        <v>1.819933849466667</v>
+        <v>2.669955722716667</v>
       </c>
       <c r="R21">
-        <v>10.9196030968</v>
+        <v>16.0197343363</v>
       </c>
       <c r="S21">
-        <v>0.01088777920134121</v>
+        <v>0.01177458025430636</v>
       </c>
       <c r="T21">
-        <v>0.0084554285720282</v>
+        <v>0.009341984156437598</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.593144</v>
+        <v>0.870179</v>
       </c>
       <c r="H22">
-        <v>1.186288</v>
+        <v>1.740358</v>
       </c>
       <c r="I22">
-        <v>0.07665541310424717</v>
+        <v>0.0964434003115035</v>
       </c>
       <c r="J22">
-        <v>0.05328779306392817</v>
+        <v>0.06765743952008244</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N22">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O22">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P22">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q22">
-        <v>3.146114466437334</v>
+        <v>3.242246925766</v>
       </c>
       <c r="R22">
-        <v>18.876686798624</v>
+        <v>19.453481554596</v>
       </c>
       <c r="S22">
-        <v>0.01882167292110826</v>
+        <v>0.01429840064645935</v>
       </c>
       <c r="T22">
-        <v>0.01461687531015545</v>
+        <v>0.01134439015376089</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.593144</v>
+        <v>0.870179</v>
       </c>
       <c r="H23">
-        <v>1.186288</v>
+        <v>1.740358</v>
       </c>
       <c r="I23">
-        <v>0.07665541310424717</v>
+        <v>0.0964434003115035</v>
       </c>
       <c r="J23">
-        <v>0.05328779306392817</v>
+        <v>0.06765743952008244</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N23">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O23">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P23">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q23">
-        <v>3.62192113864</v>
+        <v>5.939699144644</v>
       </c>
       <c r="R23">
-        <v>14.48768455456</v>
+        <v>23.758796578576</v>
       </c>
       <c r="S23">
-        <v>0.02166819285972345</v>
+        <v>0.0261942412265491</v>
       </c>
       <c r="T23">
-        <v>0.01121831817871264</v>
+        <v>0.01385505505607183</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.593144</v>
+        <v>0.870179</v>
       </c>
       <c r="H24">
-        <v>1.186288</v>
+        <v>1.740358</v>
       </c>
       <c r="I24">
-        <v>0.07665541310424717</v>
+        <v>0.0964434003115035</v>
       </c>
       <c r="J24">
-        <v>0.05328779306392817</v>
+        <v>0.06765743952008244</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N24">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O24">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P24">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q24">
-        <v>0.5592661850106667</v>
+        <v>3.696195525173333</v>
       </c>
       <c r="R24">
-        <v>3.355597110064</v>
+        <v>22.17717315104</v>
       </c>
       <c r="S24">
-        <v>0.003345817618017828</v>
+        <v>0.01630032680934457</v>
       </c>
       <c r="T24">
-        <v>0.002598355583909926</v>
+        <v>0.0129327238431246</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.593144</v>
+        <v>0.870179</v>
       </c>
       <c r="H25">
-        <v>1.186288</v>
+        <v>1.740358</v>
       </c>
       <c r="I25">
-        <v>0.07665541310424717</v>
+        <v>0.0964434003115035</v>
       </c>
       <c r="J25">
-        <v>0.05328779306392817</v>
+        <v>0.06765743952008244</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.490996</v>
+        <v>5.358931000000001</v>
       </c>
       <c r="N25">
-        <v>16.472988</v>
+        <v>16.076793</v>
       </c>
       <c r="O25">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="P25">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
       <c r="Q25">
-        <v>3.256951331424</v>
+        <v>4.663229218649001</v>
       </c>
       <c r="R25">
-        <v>19.541707988544</v>
+        <v>27.979375311894</v>
       </c>
       <c r="S25">
-        <v>0.01948475598519729</v>
+        <v>0.02056497274918882</v>
       </c>
       <c r="T25">
-        <v>0.01513182435366982</v>
+        <v>0.01631630558806791</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.130177</v>
+        <v>0.3604253333333333</v>
       </c>
       <c r="H26">
-        <v>0.390531</v>
+        <v>1.081276</v>
       </c>
       <c r="I26">
-        <v>0.01682352297531726</v>
+        <v>0.03994654514194637</v>
       </c>
       <c r="J26">
-        <v>0.01754256564430301</v>
+        <v>0.0420352396314532</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N26">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O26">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P26">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q26">
-        <v>0.08977572189950001</v>
+        <v>0.686649185936</v>
       </c>
       <c r="R26">
-        <v>0.538654331397</v>
+        <v>4.119895115616</v>
       </c>
       <c r="S26">
-        <v>0.0005370844868725384</v>
+        <v>0.003028142331188589</v>
       </c>
       <c r="T26">
-        <v>0.000417098788643303</v>
+        <v>0.002402536402183476</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.130177</v>
+        <v>0.3604253333333333</v>
       </c>
       <c r="H27">
-        <v>0.390531</v>
+        <v>1.081276</v>
       </c>
       <c r="I27">
-        <v>0.01682352297531726</v>
+        <v>0.03994654514194637</v>
       </c>
       <c r="J27">
-        <v>0.01754256564430301</v>
+        <v>0.0420352396314532</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>9.20485</v>
       </c>
       <c r="O27">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P27">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q27">
-        <v>0.3994199194833333</v>
+        <v>1.105887043177778</v>
       </c>
       <c r="R27">
-        <v>3.59477927535</v>
+        <v>9.9529833886</v>
       </c>
       <c r="S27">
-        <v>0.0023895351433935</v>
+        <v>0.004876993139363801</v>
       </c>
       <c r="T27">
-        <v>0.002783562655664345</v>
+        <v>0.005804129530094508</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.130177</v>
+        <v>0.3604253333333333</v>
       </c>
       <c r="H28">
-        <v>0.390531</v>
+        <v>1.081276</v>
       </c>
       <c r="I28">
-        <v>0.01682352297531726</v>
+        <v>0.03994654514194637</v>
       </c>
       <c r="J28">
-        <v>0.01754256564430301</v>
+        <v>0.0420352396314532</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N28">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O28">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P28">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q28">
-        <v>0.6904760781486666</v>
+        <v>1.342928212434666</v>
       </c>
       <c r="R28">
-        <v>6.214284703338</v>
+        <v>12.086353911912</v>
       </c>
       <c r="S28">
-        <v>0.004130782602287319</v>
+        <v>0.00592235140026783</v>
       </c>
       <c r="T28">
-        <v>0.004811936841433376</v>
+        <v>0.007048214682207885</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.130177</v>
+        <v>0.3604253333333333</v>
       </c>
       <c r="H29">
-        <v>0.390531</v>
+        <v>1.081276</v>
       </c>
       <c r="I29">
-        <v>0.01682352297531726</v>
+        <v>0.03994654514194637</v>
       </c>
       <c r="J29">
-        <v>0.01754256564430301</v>
+        <v>0.0420352396314532</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N29">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O29">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P29">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q29">
-        <v>0.7949011168699999</v>
+        <v>2.460204215578667</v>
       </c>
       <c r="R29">
-        <v>4.769406701219999</v>
+        <v>14.761225293472</v>
       </c>
       <c r="S29">
-        <v>0.004755506827853303</v>
+        <v>0.01084957017520844</v>
       </c>
       <c r="T29">
-        <v>0.003693117536931019</v>
+        <v>0.00860807863141326</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.130177</v>
+        <v>0.3604253333333333</v>
       </c>
       <c r="H30">
-        <v>0.390531</v>
+        <v>1.081276</v>
       </c>
       <c r="I30">
-        <v>0.01682352297531726</v>
+        <v>0.03994654514194637</v>
       </c>
       <c r="J30">
-        <v>0.01754256564430301</v>
+        <v>0.0420352396314532</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N30">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O30">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P30">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q30">
-        <v>0.1227418538603333</v>
+        <v>1.530952257208889</v>
       </c>
       <c r="R30">
-        <v>1.104676684743</v>
+        <v>13.77857031488</v>
       </c>
       <c r="S30">
-        <v>0.0007343048232144416</v>
+        <v>0.006751542755801147</v>
       </c>
       <c r="T30">
-        <v>0.0008553895888181682</v>
+        <v>0.008035038713987809</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.130177</v>
+        <v>0.3604253333333333</v>
       </c>
       <c r="H31">
-        <v>0.390531</v>
+        <v>1.081276</v>
       </c>
       <c r="I31">
-        <v>0.01682352297531726</v>
+        <v>0.03994654514194637</v>
       </c>
       <c r="J31">
-        <v>0.01754256564430301</v>
+        <v>0.0420352396314532</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>5.490996</v>
+        <v>5.358931000000001</v>
       </c>
       <c r="N31">
-        <v>16.472988</v>
+        <v>16.076793</v>
       </c>
       <c r="O31">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="P31">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
       <c r="Q31">
-        <v>0.714801386292</v>
+        <v>1.931494491985334</v>
       </c>
       <c r="R31">
-        <v>6.433212476627999</v>
+        <v>17.383450427868</v>
       </c>
       <c r="S31">
-        <v>0.00427630909169616</v>
+        <v>0.008517945340116569</v>
       </c>
       <c r="T31">
-        <v>0.004981460232812799</v>
+        <v>0.01013724167156626</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>1.050325666666667</v>
+        <v>1.446574</v>
       </c>
       <c r="H32">
-        <v>3.150977</v>
+        <v>4.339722</v>
       </c>
       <c r="I32">
-        <v>0.1357396313076203</v>
+        <v>0.1603262263996406</v>
       </c>
       <c r="J32">
-        <v>0.141541185888416</v>
+        <v>0.1687092418622899</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.6896435000000001</v>
+        <v>1.905108</v>
       </c>
       <c r="N32">
-        <v>1.379287</v>
+        <v>3.810216</v>
       </c>
       <c r="O32">
-        <v>0.03192461458046126</v>
+        <v>0.07580486173280727</v>
       </c>
       <c r="P32">
-        <v>0.02377638465777991</v>
+        <v>0.05715529216076502</v>
       </c>
       <c r="Q32">
-        <v>0.7243502688998334</v>
+        <v>2.755879699992</v>
       </c>
       <c r="R32">
-        <v>4.346101613399001</v>
+        <v>16.535278199952</v>
       </c>
       <c r="S32">
-        <v>0.004333435412789691</v>
+        <v>0.01215350742436751</v>
       </c>
       <c r="T32">
-        <v>0.003365337680601307</v>
+        <v>0.00964262600886035</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1.050325666666667</v>
+        <v>1.446574</v>
       </c>
       <c r="H33">
-        <v>3.150977</v>
+        <v>4.339722</v>
       </c>
       <c r="I33">
-        <v>0.1357396313076203</v>
+        <v>0.1603262263996406</v>
       </c>
       <c r="J33">
-        <v>0.141541185888416</v>
+        <v>0.1687092418622899</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>9.20485</v>
       </c>
       <c r="O33">
-        <v>0.1420353600669325</v>
+        <v>0.1220879833796353</v>
       </c>
       <c r="P33">
-        <v>0.1586747749505109</v>
+        <v>0.1380777076800943</v>
       </c>
       <c r="Q33">
-        <v>3.222696737605556</v>
+        <v>4.438498894633334</v>
       </c>
       <c r="R33">
-        <v>29.00427063845</v>
+        <v>39.9464900517</v>
       </c>
       <c r="S33">
-        <v>0.01927982740813052</v>
+        <v>0.01957390566399898</v>
       </c>
       <c r="T33">
-        <v>0.02245901581707284</v>
+        <v>0.02329498538079159</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>1.050325666666667</v>
+        <v>1.446574</v>
       </c>
       <c r="H34">
-        <v>3.150977</v>
+        <v>4.339722</v>
       </c>
       <c r="I34">
-        <v>0.1357396313076203</v>
+        <v>0.1603262263996406</v>
       </c>
       <c r="J34">
-        <v>0.141541185888416</v>
+        <v>0.1687092418622899</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>5.304132666666667</v>
+        <v>3.725954</v>
       </c>
       <c r="N34">
-        <v>15.912398</v>
+        <v>11.177862</v>
       </c>
       <c r="O34">
-        <v>0.2455361227459804</v>
+        <v>0.148256911310435</v>
       </c>
       <c r="P34">
-        <v>0.2743006319030685</v>
+        <v>0.1676739503331867</v>
       </c>
       <c r="Q34">
-        <v>5.571066679205112</v>
+        <v>5.389868181595999</v>
       </c>
       <c r="R34">
-        <v>50.139600112846</v>
+        <v>48.508813634364</v>
       </c>
       <c r="S34">
-        <v>0.03332898277424198</v>
+        <v>0.02376947112806824</v>
       </c>
       <c r="T34">
-        <v>0.03882483672950218</v>
+        <v>0.02828814504076718</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>1.050325666666667</v>
+        <v>1.446574</v>
       </c>
       <c r="H35">
-        <v>3.150977</v>
+        <v>4.339722</v>
       </c>
       <c r="I35">
-        <v>0.1357396313076203</v>
+        <v>0.1603262263996406</v>
       </c>
       <c r="J35">
-        <v>0.141541185888416</v>
+        <v>0.1687092418622899</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>6.10631</v>
+        <v>6.825836</v>
       </c>
       <c r="N35">
-        <v>12.21262</v>
+        <v>13.651672</v>
       </c>
       <c r="O35">
-        <v>0.2826700944166317</v>
+        <v>0.2716022158275637</v>
       </c>
       <c r="P35">
-        <v>0.210523227435114</v>
+        <v>0.2047824327132465</v>
       </c>
       <c r="Q35">
-        <v>6.413614121623334</v>
+        <v>9.874076885864</v>
       </c>
       <c r="R35">
-        <v>38.48168472974</v>
+        <v>59.244461315184</v>
       </c>
       <c r="S35">
-        <v>0.03836953439780381</v>
+        <v>0.04354495834541403</v>
       </c>
       <c r="T35">
-        <v>0.02979770726822274</v>
+        <v>0.03454868896976722</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>1.050325666666667</v>
+        <v>1.446574</v>
       </c>
       <c r="H36">
-        <v>3.150977</v>
+        <v>4.339722</v>
       </c>
       <c r="I36">
-        <v>0.1357396313076203</v>
+        <v>0.1603262263996406</v>
       </c>
       <c r="J36">
-        <v>0.141541185888416</v>
+        <v>0.1687092418622899</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.9428843333333333</v>
+        <v>4.247626666666666</v>
       </c>
       <c r="N36">
-        <v>2.828653</v>
+        <v>12.74288</v>
       </c>
       <c r="O36">
-        <v>0.04364750619069392</v>
+        <v>0.1690144349607748</v>
       </c>
       <c r="P36">
-        <v>0.0487608030753448</v>
+        <v>0.1911500632430207</v>
       </c>
       <c r="Q36">
-        <v>0.9903356159978889</v>
+        <v>6.144506297706666</v>
       </c>
       <c r="R36">
-        <v>8.913020543981</v>
+        <v>55.30055667936</v>
       </c>
       <c r="S36">
-        <v>0.005924696397821868</v>
+        <v>0.02709744656432851</v>
       </c>
       <c r="T36">
-        <v>0.006901661892155823</v>
+        <v>0.03224878225165879</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>1.050325666666667</v>
+        <v>1.446574</v>
       </c>
       <c r="H37">
-        <v>3.150977</v>
+        <v>4.339722</v>
       </c>
       <c r="I37">
-        <v>0.1357396313076203</v>
+        <v>0.1603262263996406</v>
       </c>
       <c r="J37">
-        <v>0.141541185888416</v>
+        <v>0.1687092418622899</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>5.490996</v>
+        <v>5.358931000000001</v>
       </c>
       <c r="N37">
-        <v>16.472988</v>
+        <v>16.076793</v>
       </c>
       <c r="O37">
-        <v>0.2541863019993003</v>
+        <v>0.213233592788784</v>
       </c>
       <c r="P37">
-        <v>0.2839641779781819</v>
+        <v>0.2411605538696867</v>
       </c>
       <c r="Q37">
-        <v>5.767334034364</v>
+        <v>7.752090252394002</v>
       </c>
       <c r="R37">
-        <v>51.906006309276</v>
+        <v>69.76881227154601</v>
       </c>
       <c r="S37">
-        <v>0.03450315491683245</v>
+        <v>0.03418693727346336</v>
       </c>
       <c r="T37">
-        <v>0.04019262650086107</v>
+        <v>0.04068601421044477</v>
       </c>
     </row>
   </sheetData>
